--- a/ETL Mapping document.xlsx
+++ b/ETL Mapping document.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikej\DataClass\Project-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714B739-E98D-4D30-A542-757DF6D7EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6735" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t>Overview:</t>
   </si>
@@ -37,24 +46,9 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>&lt;file path&gt;</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
-    <t>local postgres/customer_db</t>
-  </si>
-  <si>
-    <t>Login:postgres, PW: password</t>
-  </si>
-  <si>
-    <t>https://url</t>
-  </si>
-  <si>
-    <t>api_key</t>
-  </si>
-  <si>
     <t>Source index</t>
   </si>
   <si>
@@ -82,112 +76,189 @@
     <t>Business Rule</t>
   </si>
   <si>
-    <t>names.txt</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>target_db</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>date_entered</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>date_entered_dt</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>date_entered_time</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Table Rules</t>
   </si>
   <si>
-    <t>filter on id&lt;50</t>
-  </si>
-  <si>
-    <t>Convert all timestamps to yyyy-mm-ddThh:mm:ss</t>
-  </si>
-  <si>
-    <t>Add 2 additional columns splitting every timestamp to a date column and a time column</t>
-  </si>
-  <si>
     <t>Business Rules</t>
   </si>
   <si>
-    <t>passthrough</t>
-  </si>
-  <si>
-    <t>Title case</t>
-  </si>
-  <si>
-    <t>Add 2 additional columns splitting timestamp into a date column and a time column</t>
+    <t>https://www.kaggle.com/lanekatris/pdga-united-states-disc-golf-courses</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/khushishahh/fast-food-restaurants-across-us</t>
+  </si>
+  <si>
+    <t>local postgres/project2</t>
+  </si>
+  <si>
+    <t>Login:postgres, PW: postgres</t>
+  </si>
+  <si>
+    <t>golf_eat</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>restaurant_city</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>disc_golf_course</t>
+  </si>
+  <si>
+    <t>disc_golf_city</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>holeCount</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>disc_golf_courses.csv</t>
+  </si>
+  <si>
+    <t>fast_food_restaurants.csv</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>project2</t>
+  </si>
+  <si>
+    <t>Delete unwanted columns</t>
+  </si>
+  <si>
+    <t>Convert state abbreviations to full state name</t>
+  </si>
+  <si>
+    <t>Merge dataframes together on 'state'</t>
+  </si>
+  <si>
+    <t>Drop duplicates rows by 'address'</t>
+  </si>
+  <si>
+    <t>Set index to 'state'</t>
+  </si>
+  <si>
+    <t>Renamed columns</t>
+  </si>
+  <si>
+    <t>Need state</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,49 +266,67 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -427,27 +516,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="3" width="18.57"/>
-    <col customWidth="1" min="8" max="8" width="24.43"/>
-    <col customWidth="1" min="9" max="9" width="11.86"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,284 +569,721 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="L12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="K13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="L13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="L14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="L15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="L17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="C29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="14"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>5</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F9:H48"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F9:H60"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C5"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ETL Mapping document.xlsx
+++ b/ETL Mapping document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikej\DataClass\Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714B739-E98D-4D30-A542-757DF6D7EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754C3A62-1439-40F4-8303-401D1EEE7D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>Overview:</t>
   </si>
@@ -199,14 +199,47 @@
     <t>Renamed columns</t>
   </si>
   <si>
-    <t>Need state</t>
+    <t>golf_eat_concat</t>
+  </si>
+  <si>
+    <t>GOLF_EAT</t>
+  </si>
+  <si>
+    <t>GOLF_EAT_CONCAT</t>
+  </si>
+  <si>
+    <t>Drop address column from ff_df</t>
+  </si>
+  <si>
+    <t>Drop address column</t>
+  </si>
+  <si>
+    <t>Rearrange columns ff_df</t>
+  </si>
+  <si>
+    <t>Add categories column to dg_df</t>
+  </si>
+  <si>
+    <t>Concatenate date frames</t>
+  </si>
+  <si>
+    <t>Sort by state</t>
+  </si>
+  <si>
+    <t>Show .describe()</t>
+  </si>
+  <si>
+    <t>Groupby state and categories</t>
+  </si>
+  <si>
+    <t>Groupby city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,6 +293,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -291,19 +331,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -526,22 +572,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -562,14 +608,14 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,19 +626,18 @@
         <v>21</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -601,7 +646,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -614,673 +659,636 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="I12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="I13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="I14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="I16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K17" t="s">
+      <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="I17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>1</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>2</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="14"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="B60" s="2"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>3</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>6</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F9:H60"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C58:D58"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
